--- a/Python/hemant/itemlist.xlsx
+++ b/Python/hemant/itemlist.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microsoft Visual\Python\hemant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90038500-EE90-4CC3-A3B4-6185439800BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A159E-5031-4630-AF70-32AA421BF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="211">
   <si>
     <t>SKU</t>
   </si>
@@ -37,18 +37,12 @@
     <t>B0CYQBT9MF</t>
   </si>
   <si>
-    <t>DRR</t>
-  </si>
-  <si>
     <t>B0CVN6JXYY</t>
   </si>
   <si>
     <t>B0C78N12Z8</t>
   </si>
   <si>
-    <t>B0C7KW5NTJ</t>
-  </si>
-  <si>
     <t>B0CNNFB57F</t>
   </si>
   <si>
@@ -67,18 +61,12 @@
     <t>B0D1SLD354</t>
   </si>
   <si>
-    <t>B0D2PD4HYN</t>
-  </si>
-  <si>
     <t>B0D3CKLHR9</t>
   </si>
   <si>
     <t>B0CVFQDK2P</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>B0C7H4JGLM</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>B0CPCXB8F8</t>
   </si>
   <si>
-    <t>B0C78ZGX7K</t>
-  </si>
-  <si>
     <t>B0CPCWV9J7</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>B0C78M7R44</t>
   </si>
   <si>
-    <t>PD Shortlisted</t>
-  </si>
-  <si>
     <t>B0D3CK3KPC</t>
   </si>
   <si>
@@ -139,12 +121,6 @@
     <t>B0CTMX6VYT</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional </t>
-  </si>
-  <si>
-    <t>B0D2PD1779</t>
-  </si>
-  <si>
     <t>B0C78L1JXM</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t>B0CT5VXSY1</t>
   </si>
   <si>
-    <t>B0CQMHM3RQ</t>
-  </si>
-  <si>
     <t>B0C78NBV5M</t>
   </si>
   <si>
@@ -190,9 +163,6 @@
     <t>B0CTMXDJQL</t>
   </si>
   <si>
-    <t>B0CYQCQ4KK</t>
-  </si>
-  <si>
     <t>B0D6CRY4BZ</t>
   </si>
   <si>
@@ -211,60 +181,30 @@
     <t>B0CVN9NGY9</t>
   </si>
   <si>
-    <t>B0C6FLQFKQ</t>
-  </si>
-  <si>
     <t>B0CNNCMNMK</t>
   </si>
   <si>
-    <t>B0C8DNH9PP</t>
-  </si>
-  <si>
     <t>B0CNNDD4TQ</t>
   </si>
   <si>
-    <t>B0CTMW9VRT</t>
-  </si>
-  <si>
     <t>B0C8NV5HSF</t>
   </si>
   <si>
     <t>B0CNND297Y</t>
   </si>
   <si>
-    <t>B0C8DKJKY5</t>
-  </si>
-  <si>
-    <t>B0C6FPQFTR</t>
-  </si>
-  <si>
     <t>B0C8NTD366</t>
   </si>
   <si>
     <t>B0C8NVV4YZ</t>
   </si>
   <si>
-    <t>B0C78V1XBJ</t>
-  </si>
-  <si>
     <t>B0D2PB7XTB</t>
   </si>
   <si>
-    <t>B0C66CZWLY</t>
-  </si>
-  <si>
     <t>B0D2PDCSV3</t>
   </si>
   <si>
-    <t>B0CV4CB3NT</t>
-  </si>
-  <si>
-    <t>B0C8DN2P24</t>
-  </si>
-  <si>
-    <t>B0CV4DPBRN</t>
-  </si>
-  <si>
     <t>B0CG4KMFBN</t>
   </si>
   <si>
@@ -295,9 +235,6 @@
     <t>B0CNNDD4V6</t>
   </si>
   <si>
-    <t>Deal Bank</t>
-  </si>
-  <si>
     <t>B0CNNDDVPZ</t>
   </si>
   <si>
@@ -307,18 +244,12 @@
     <t>B0CH3MQY2C</t>
   </si>
   <si>
-    <t>B0CTMWC9SZ</t>
-  </si>
-  <si>
     <t>B0C78V1JW1</t>
   </si>
   <si>
     <t>B0CDCND54K</t>
   </si>
   <si>
-    <t>B0C6FP8DHB</t>
-  </si>
-  <si>
     <t>B0CG4LKFSD</t>
   </si>
   <si>
@@ -328,27 +259,9 @@
     <t>B0C6FMJKLY</t>
   </si>
   <si>
-    <t>B0CTMTS4VH</t>
-  </si>
-  <si>
-    <t>B0C6FM53YZ</t>
-  </si>
-  <si>
-    <t>B0C6FPCD7R</t>
-  </si>
-  <si>
     <t>B0C6FNHW7G</t>
   </si>
   <si>
-    <t>B0CTMVWT7J</t>
-  </si>
-  <si>
-    <t>B0C6FP7PGD</t>
-  </si>
-  <si>
-    <t>B0C6FKRYQH</t>
-  </si>
-  <si>
     <t>B0CKLJYBKK</t>
   </si>
   <si>
@@ -364,73 +277,382 @@
     <t>B0CNNBF9G1</t>
   </si>
   <si>
-    <t>B0CTMWF1SS</t>
-  </si>
-  <si>
-    <t>B0C6FQ628Q</t>
-  </si>
-  <si>
-    <t>B0CTMTYS2H</t>
-  </si>
-  <si>
     <t>B0CTMW8CQQ</t>
   </si>
   <si>
-    <t>B0C6FLL7YD</t>
-  </si>
-  <si>
-    <t>B0CTMWC95L</t>
-  </si>
-  <si>
-    <t>B0C6FMF68D</t>
-  </si>
-  <si>
-    <t>B0CNNBX68J</t>
-  </si>
-  <si>
-    <t>B0CTMTMM3F</t>
-  </si>
-  <si>
-    <t>B0C6FNQJ67</t>
-  </si>
-  <si>
-    <t>B0C6FM8VFX</t>
-  </si>
-  <si>
-    <t>B0C6FNJPL1</t>
-  </si>
-  <si>
-    <t>B0C6FPLMXB</t>
-  </si>
-  <si>
-    <t>B0C6FPBBLB</t>
-  </si>
-  <si>
     <t>B0CNNDCJ34</t>
   </si>
   <si>
-    <t>B0CVH9N7S8</t>
-  </si>
-  <si>
-    <t>B0C6FMR65N</t>
-  </si>
-  <si>
-    <t>B0CTMTWR52</t>
-  </si>
-  <si>
-    <t>B0C6FN1FM1</t>
-  </si>
-  <si>
-    <t>B0C6FKWVCS</t>
-  </si>
-  <si>
-    <t>B0C6FKTHVS</t>
-  </si>
-  <si>
-    <t>B0CH3NWJV4</t>
-  </si>
-  <si>
-    <t>B0C6FM8Y7B</t>
+    <t>B0C8NX4YK5</t>
+  </si>
+  <si>
+    <t>2. DB</t>
+  </si>
+  <si>
+    <t>B0C8NW9HS5</t>
+  </si>
+  <si>
+    <t>B0C8NWC997</t>
+  </si>
+  <si>
+    <t>B0C8NWC7H7</t>
+  </si>
+  <si>
+    <t>B0C8NXS5P8</t>
+  </si>
+  <si>
+    <t>B0C8NTV62Q</t>
+  </si>
+  <si>
+    <t>B0C8NVZTPR</t>
+  </si>
+  <si>
+    <t>B0C8NTXW6V</t>
+  </si>
+  <si>
+    <t>B0C8P1D713</t>
+  </si>
+  <si>
+    <t>B0C8NX8TX9</t>
+  </si>
+  <si>
+    <t>B0C6MYT27K</t>
+  </si>
+  <si>
+    <t>B0C8NR5PCQ</t>
+  </si>
+  <si>
+    <t>B0C66JMYR7</t>
+  </si>
+  <si>
+    <t>B0C8NW1CXP</t>
+  </si>
+  <si>
+    <t>B0C8NS7CZ6</t>
+  </si>
+  <si>
+    <t>B0C8NVBTWS</t>
+  </si>
+  <si>
+    <t>B0C8NWPVZ4</t>
+  </si>
+  <si>
+    <t>B0C8NV8XHK</t>
+  </si>
+  <si>
+    <t>B0C8NVP657</t>
+  </si>
+  <si>
+    <t>B0C8NYGCS7</t>
+  </si>
+  <si>
+    <t>B0C8NWGSN5</t>
+  </si>
+  <si>
+    <t>B0C8NWTDPQ</t>
+  </si>
+  <si>
+    <t>B0C8NSTF96</t>
+  </si>
+  <si>
+    <t>B0C8NSYJLY</t>
+  </si>
+  <si>
+    <t>B0C8NVM47Z</t>
+  </si>
+  <si>
+    <t>B0C8NSZVL3</t>
+  </si>
+  <si>
+    <t>B0C8NVZK9G</t>
+  </si>
+  <si>
+    <t>B0C8NW4WMH</t>
+  </si>
+  <si>
+    <t>B0C8NYPY7L</t>
+  </si>
+  <si>
+    <t>B0C8NXPKP4</t>
+  </si>
+  <si>
+    <t>B0C8NYCX4D</t>
+  </si>
+  <si>
+    <t>B0C8NTM6FX</t>
+  </si>
+  <si>
+    <t>B0C8NVZ654</t>
+  </si>
+  <si>
+    <t>B0C8NS7MJB</t>
+  </si>
+  <si>
+    <t>B0C8NXDCWF</t>
+  </si>
+  <si>
+    <t>B0C8NXMY7D</t>
+  </si>
+  <si>
+    <t>B0C8NWDW5P</t>
+  </si>
+  <si>
+    <t>B0C8P1JBG5</t>
+  </si>
+  <si>
+    <t>B0C8NXZSV3</t>
+  </si>
+  <si>
+    <t>B0C8NVKDD7</t>
+  </si>
+  <si>
+    <t>B0C8NZR4NM</t>
+  </si>
+  <si>
+    <t>B0C8NWP38R</t>
+  </si>
+  <si>
+    <t>B0C8NZFF5N</t>
+  </si>
+  <si>
+    <t>B0C8NRYCN3</t>
+  </si>
+  <si>
+    <t>B0C8NVZ9RF</t>
+  </si>
+  <si>
+    <t>B0C8NXMV24</t>
+  </si>
+  <si>
+    <t>B0C8NVCZKV</t>
+  </si>
+  <si>
+    <t>B0C8NYT27C</t>
+  </si>
+  <si>
+    <t>B0C8NVHS4G</t>
+  </si>
+  <si>
+    <t>B0CNNCVVQJ</t>
+  </si>
+  <si>
+    <t>B0C6N14PSY</t>
+  </si>
+  <si>
+    <t>B0C8DLMWJF</t>
+  </si>
+  <si>
+    <t>B0C8NS4SMN</t>
+  </si>
+  <si>
+    <t>1. ML</t>
+  </si>
+  <si>
+    <t>B0C8NV4SLX</t>
+  </si>
+  <si>
+    <t>B0C8NZS4WB</t>
+  </si>
+  <si>
+    <t>B0CB4N3SFD</t>
+  </si>
+  <si>
+    <t>B0C6MYZZLT</t>
+  </si>
+  <si>
+    <t>B0C8DNZG5H</t>
+  </si>
+  <si>
+    <t>B0CNNBCM52</t>
+  </si>
+  <si>
+    <t>B0C8DNR499</t>
+  </si>
+  <si>
+    <t>B0C8DLF874</t>
+  </si>
+  <si>
+    <t>B0C8DM5YWV</t>
+  </si>
+  <si>
+    <t>B0C8DMXW68</t>
+  </si>
+  <si>
+    <t>B0C8DN6PYF</t>
+  </si>
+  <si>
+    <t>B0CJYBTD2N</t>
+  </si>
+  <si>
+    <t>B0C7964S3L</t>
+  </si>
+  <si>
+    <t>B0C8NYNH4B</t>
+  </si>
+  <si>
+    <t>B0C8NSW96Q</t>
+  </si>
+  <si>
+    <t>B0C8NVBQZY</t>
+  </si>
+  <si>
+    <t>B0C8NTM2W2</t>
+  </si>
+  <si>
+    <t>B0C8NXHPXV</t>
+  </si>
+  <si>
+    <t>B0C8NXSZ59</t>
+  </si>
+  <si>
+    <t>B0C8NTG7TZ</t>
+  </si>
+  <si>
+    <t>B0C8NVVRZS</t>
+  </si>
+  <si>
+    <t>B0C8NRLXBW</t>
+  </si>
+  <si>
+    <t>B0C8NXDM98</t>
+  </si>
+  <si>
+    <t>B0C8NTPPK2</t>
+  </si>
+  <si>
+    <t>B0C96PX8M6</t>
+  </si>
+  <si>
+    <t>B0C8NY146W</t>
+  </si>
+  <si>
+    <t>B0C8NYB56S</t>
+  </si>
+  <si>
+    <t>B0C69TJV64</t>
+  </si>
+  <si>
+    <t>B0C8NWL1WN</t>
+  </si>
+  <si>
+    <t>B0C8NWZRKN</t>
+  </si>
+  <si>
+    <t>B0C8NVGXGV</t>
+  </si>
+  <si>
+    <t>B0C8NSQS3Y</t>
+  </si>
+  <si>
+    <t>B0C8NSSJRQ</t>
+  </si>
+  <si>
+    <t>B0C8NRC6BJ</t>
+  </si>
+  <si>
+    <t>B0C8NVR69P</t>
+  </si>
+  <si>
+    <t>B0C8NXPLKK</t>
+  </si>
+  <si>
+    <t>B0C8NXJG6W</t>
+  </si>
+  <si>
+    <t>B0C8P3FMSP</t>
+  </si>
+  <si>
+    <t>B0C8NWSLW5</t>
+  </si>
+  <si>
+    <t>B0C8NWJVS8</t>
+  </si>
+  <si>
+    <t>B0C8NYGXQL</t>
+  </si>
+  <si>
+    <t>B0C8NR5JFQ</t>
+  </si>
+  <si>
+    <t>B0C8NV89T9</t>
+  </si>
+  <si>
+    <t>B0C8NVLQ7F</t>
+  </si>
+  <si>
+    <t>B0C8NTPBLH</t>
+  </si>
+  <si>
+    <t>B0C66C5T83</t>
+  </si>
+  <si>
+    <t>B0C8NVTZ3F</t>
+  </si>
+  <si>
+    <t>B0C8NW4WGN</t>
+  </si>
+  <si>
+    <t>B0C8NTL6SZ</t>
+  </si>
+  <si>
+    <t>B0C8NRG9QG</t>
+  </si>
+  <si>
+    <t>B0C8NTTNTC</t>
+  </si>
+  <si>
+    <t>B0C8NXJSX7</t>
+  </si>
+  <si>
+    <t>B0C8NX2G85</t>
+  </si>
+  <si>
+    <t>B0C8NW2329</t>
+  </si>
+  <si>
+    <t>B0C8NWCSKX</t>
+  </si>
+  <si>
+    <t>B0C8NZGDTY</t>
+  </si>
+  <si>
+    <t>B0C8NTJG7B</t>
+  </si>
+  <si>
+    <t>B0C8NX1BFX</t>
+  </si>
+  <si>
+    <t>B0C8NRS6LD</t>
+  </si>
+  <si>
+    <t>B0C8NVP757</t>
+  </si>
+  <si>
+    <t>B0C8NVC1LV</t>
+  </si>
+  <si>
+    <t>B0C8NXZ1CC</t>
+  </si>
+  <si>
+    <t>B0C8NW8RJ2</t>
+  </si>
+  <si>
+    <t>B0C8NYLG6M</t>
+  </si>
+  <si>
+    <t>B0C8NT983V</t>
+  </si>
+  <si>
+    <t>B0C8NV2ZTZ</t>
+  </si>
+  <si>
+    <t>B0C8NVR8HF</t>
+  </si>
+  <si>
+    <t>B0C8NW57T4</t>
+  </si>
+  <si>
+    <t>B0C8NTFKBC</t>
   </si>
 </sst>
 </file>
@@ -770,11 +992,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -792,664 +1020,670 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>802</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>758</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>759</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>721</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>616</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>719</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>719</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>758</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D14">
-        <v>802</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D15">
-        <v>698</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D16">
-        <v>533</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>665</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>589</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>670</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>803</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D21">
-        <v>662</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D22">
-        <v>666</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>670</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>664</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>668</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D26">
-        <v>721</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D27">
-        <v>682</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>667</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D29">
-        <v>712</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D33">
-        <v>1851</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>758</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>721</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>759</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>802</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>759</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>1804</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D43">
-        <v>721</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>721</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D45">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D46">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D47">
-        <v>1139</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D48">
-        <v>616</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>1851</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D50">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D52">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D53">
-        <v>802</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D54">
-        <v>759</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D55">
-        <v>721</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D56">
-        <v>759</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D57">
-        <v>1443</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D58">
-        <v>630</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D59">
-        <v>616</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D60">
-        <v>616</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D61">
-        <v>1139</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <v>569</v>
@@ -1457,109 +1691,109 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D63">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D64">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D65">
-        <v>1082</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D66">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D67">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>721</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D69">
-        <v>758</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D70">
-        <v>676</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D71">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <v>616</v>
@@ -1567,10 +1801,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>616</v>
@@ -1578,10 +1812,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D74">
         <v>616</v>
@@ -1589,10 +1823,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>616</v>
@@ -1600,593 +1834,1443 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D76">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D77">
-        <v>759</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D78">
-        <v>759</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>141</v>
+      </c>
+      <c r="D79">
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D80">
-        <v>854</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D81">
-        <v>1851</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D82">
-        <v>569</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D83">
-        <v>802</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D84">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D85">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D86">
-        <v>1851</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D87">
-        <v>1804</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D88">
-        <v>1519</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D89">
-        <v>759</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D90">
-        <v>759</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D91">
-        <v>1713</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D92">
-        <v>521</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D93">
-        <v>521</v>
+        <v>719</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D94">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D95">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D96">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D97">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D98">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D99">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D100">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D101">
-        <v>1713</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D102">
-        <v>721</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D103">
-        <v>721</v>
+        <v>751</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D104">
-        <v>569</v>
+        <v>751</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D105">
-        <v>569</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D106">
-        <v>521</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D107">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D108">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D109">
-        <v>1804</v>
+        <v>759</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D110">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D111">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D112">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D113">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D114">
-        <v>521</v>
+        <v>759</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D115">
-        <v>1804</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D116">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D117">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D118">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D119">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D120">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D121">
-        <v>521</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D122">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D123">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D124">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D125">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D126">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D127">
-        <v>1443</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D128">
-        <v>1519</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D129">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>141</v>
+      </c>
+      <c r="D144">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>141</v>
+      </c>
+      <c r="D150">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>88</v>
+      </c>
+      <c r="D151">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" t="s">
+        <v>88</v>
+      </c>
+      <c r="D154">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D155">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" t="s">
+        <v>88</v>
+      </c>
+      <c r="D156">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" t="s">
+        <v>88</v>
+      </c>
+      <c r="D157">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" t="s">
+        <v>88</v>
+      </c>
+      <c r="D158">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" t="s">
+        <v>88</v>
+      </c>
+      <c r="D159">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" t="s">
+        <v>88</v>
+      </c>
+      <c r="D161">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>141</v>
+      </c>
+      <c r="D162">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>178</v>
+      </c>
+      <c r="C163" t="s">
+        <v>88</v>
+      </c>
+      <c r="D163">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C164" t="s">
+        <v>88</v>
+      </c>
+      <c r="D164">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" t="s">
+        <v>88</v>
+      </c>
+      <c r="D165">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" t="s">
+        <v>88</v>
+      </c>
+      <c r="D166">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" t="s">
+        <v>88</v>
+      </c>
+      <c r="D168">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" t="s">
+        <v>88</v>
+      </c>
+      <c r="D169">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" t="s">
+        <v>88</v>
+      </c>
+      <c r="D170">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" t="s">
+        <v>88</v>
+      </c>
+      <c r="D171">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>187</v>
+      </c>
+      <c r="C172" t="s">
+        <v>88</v>
+      </c>
+      <c r="D172">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175" t="s">
+        <v>88</v>
+      </c>
+      <c r="D175">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" t="s">
+        <v>88</v>
+      </c>
+      <c r="D177">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178" t="s">
+        <v>88</v>
+      </c>
+      <c r="D178">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>194</v>
+      </c>
+      <c r="C179" t="s">
+        <v>88</v>
+      </c>
+      <c r="D179">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180" t="s">
+        <v>88</v>
+      </c>
+      <c r="D180">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" t="s">
+        <v>88</v>
+      </c>
+      <c r="D181">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" t="s">
+        <v>88</v>
+      </c>
+      <c r="D182">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>198</v>
+      </c>
+      <c r="C183" t="s">
+        <v>88</v>
+      </c>
+      <c r="D183">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D184">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185" t="s">
+        <v>88</v>
+      </c>
+      <c r="D185">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>201</v>
+      </c>
+      <c r="C186" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>202</v>
+      </c>
+      <c r="C187" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" t="s">
+        <v>88</v>
+      </c>
+      <c r="D189">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" t="s">
+        <v>88</v>
+      </c>
+      <c r="D190">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>206</v>
+      </c>
+      <c r="C191" t="s">
+        <v>88</v>
+      </c>
+      <c r="D191">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" t="s">
+        <v>88</v>
+      </c>
+      <c r="D192">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C193" t="s">
+        <v>88</v>
+      </c>
+      <c r="D193">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" t="s">
+        <v>88</v>
+      </c>
+      <c r="D194">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" t="s">
+        <v>88</v>
+      </c>
+      <c r="D195">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" t="s">
+        <v>141</v>
+      </c>
+      <c r="D196">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" t="s">
+        <v>88</v>
+      </c>
+      <c r="D198">
         <v>1713</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199" t="s">
+        <v>141</v>
+      </c>
+      <c r="D199">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" t="s">
+        <v>88</v>
+      </c>
+      <c r="D200">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D201">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>32</v>
+      </c>
+      <c r="C202" t="s">
+        <v>141</v>
+      </c>
+      <c r="D202">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" t="s">
+        <v>88</v>
+      </c>
+      <c r="D204">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="s">
+        <v>88</v>
+      </c>
+      <c r="D205">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" t="s">
+        <v>88</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Python/hemant/itemlist.xlsx
+++ b/Python/hemant/itemlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microsoft Visual\Python\hemant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A159E-5031-4630-AF70-32AA421BF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD014D-D24C-4CE6-8155-5B23D7E31CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2:D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1686,7 @@
         <v>88</v>
       </c>
       <c r="D62">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>88</v>
       </c>
       <c r="D64">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>88</v>
       </c>
       <c r="D65">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>141</v>
       </c>
       <c r="D66">
-        <v>569</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>88</v>
       </c>
       <c r="D67">
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>88</v>
       </c>
       <c r="D72">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>88</v>
       </c>
       <c r="D73">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>88</v>
       </c>
       <c r="D75">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>141</v>
       </c>
       <c r="D79">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -2038,7 +2038,7 @@
         <v>141</v>
       </c>
       <c r="D94">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>88</v>
       </c>
       <c r="D95">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>141</v>
       </c>
       <c r="D96">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>141</v>
       </c>
       <c r="D97">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="D98">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>88</v>
       </c>
       <c r="D99">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>88</v>
       </c>
       <c r="D100">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>141</v>
       </c>
       <c r="D107">
-        <v>759</v>
+        <v>737</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>141</v>
       </c>
       <c r="D108">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>141</v>
       </c>
       <c r="D110">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>141</v>
       </c>
       <c r="D113">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>141</v>
       </c>
       <c r="D114">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>88</v>
       </c>
       <c r="D119">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>141</v>
       </c>
       <c r="D120">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>88</v>
       </c>
       <c r="D121">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>88</v>
       </c>
       <c r="D122">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
         <v>141</v>
       </c>
       <c r="D131">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>141</v>
       </c>
       <c r="D132">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>141</v>
       </c>
       <c r="D135">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>141</v>
       </c>
       <c r="D141">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>141</v>
       </c>
       <c r="D144">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>141</v>
       </c>
       <c r="D150">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="D160">
-        <v>854</v>
+        <v>802</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>141</v>
       </c>
       <c r="D162">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>88</v>
       </c>
       <c r="D174">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>88</v>
       </c>
       <c r="D178">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>88</v>
       </c>
       <c r="D180">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>88</v>
       </c>
       <c r="D181">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>88</v>
       </c>
       <c r="D182">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="D184">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>88</v>
       </c>
       <c r="D186">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>88</v>
       </c>
       <c r="D188">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>88</v>
       </c>
       <c r="D189">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>88</v>
       </c>
       <c r="D191">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>88</v>
       </c>
       <c r="D192">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>88</v>
       </c>
       <c r="D193">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>88</v>
       </c>
       <c r="D195">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>141</v>
       </c>
       <c r="D196">
-        <v>1139</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>88</v>
       </c>
       <c r="D197">
-        <v>1519</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>141</v>
       </c>
       <c r="D199">
-        <v>1804</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="D200">
-        <v>1804</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>141</v>
       </c>
       <c r="D202">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>141</v>
       </c>
       <c r="D203">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>88</v>
       </c>
       <c r="D204">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>88</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
